--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/ImperialCourt.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/ImperialCourt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9444"/>
+    <workbookView windowWidth="28800" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>@default</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
   <si>
     <t>Id</t>
@@ -162,10 +165,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -181,60 +184,70 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,19 +261,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,54 +321,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,25 +337,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,67 +421,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,85 +505,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,50 +531,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,11 +570,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,10 +636,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,133 +648,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,71 +1107,77 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.775" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="10.4444444444444" style="1"/>
-    <col min="3" max="3" width="20.1111111111111" style="1"/>
-    <col min="4" max="4" width="10.4444444444444" style="1"/>
-    <col min="5" max="16384" width="9.77777777777778" style="1"/>
+    <col min="1" max="2" width="10.4416666666667" style="1"/>
+    <col min="3" max="3" width="20.1083333333333" style="1"/>
+    <col min="4" max="4" width="10.4416666666667" style="1"/>
+    <col min="5" max="16384" width="9.775" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1176,10 +1185,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1187,10 +1196,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1198,10 +1207,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1209,10 +1218,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1">
         <v>-256</v>
@@ -1223,10 +1232,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1">
         <v>-255</v>
@@ -1240,10 +1249,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1">
         <v>-206</v>
@@ -1257,10 +1266,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1">
         <v>25</v>
@@ -1274,10 +1283,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1">
         <v>220</v>
@@ -1291,10 +1300,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1">
         <v>265</v>
@@ -1308,10 +1317,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1">
         <v>420</v>
@@ -1325,10 +1334,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1">
         <v>386</v>
@@ -1342,10 +1351,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1">
         <v>618</v>
@@ -1359,10 +1368,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" s="1">
         <v>907</v>
@@ -1376,10 +1385,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1">
         <v>960</v>
@@ -1393,10 +1402,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" s="1">
         <v>1279</v>
@@ -1410,10 +1419,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1">
         <v>1368</v>
@@ -1427,10 +1436,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1">
         <v>1662</v>

--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/ImperialCourt.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/ImperialCourt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500"/>
+    <workbookView windowWidth="22368" windowHeight="9444"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>@default</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>清季實錄</t>
+  </si>
+  <si>
+    <t>民國</t>
   </si>
 </sst>
 </file>
@@ -165,10 +168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -184,6 +187,50 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -192,16 +239,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,104 +270,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -321,8 +278,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,31 +340,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,31 +490,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,115 +520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,11 +534,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,50 +612,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,10 +639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,133 +651,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,18 +1107,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.775" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="10.4416666666667" style="1"/>
-    <col min="3" max="3" width="20.1083333333333" style="1"/>
-    <col min="4" max="4" width="10.4416666666667" style="1"/>
-    <col min="5" max="16384" width="9.775" style="1"/>
+    <col min="1" max="2" width="10.4444444444444" style="1"/>
+    <col min="3" max="3" width="20.1111111111111" style="1"/>
+    <col min="4" max="4" width="10.4444444444444" style="1"/>
+    <col min="5" max="16384" width="9.77777777777778" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1448,6 +1451,14 @@
         <v>1911</v>
       </c>
     </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/ImperialCourt.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/ImperialCourt.xlsx
@@ -1110,7 +1110,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6" outlineLevelCol="4"/>
